--- a/trend_results/Rivers/OngarueatTaringamotu_a384421aec.xlsx
+++ b/trend_results/Rivers/OngarueatTaringamotu_a384421aec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.925120928820913</v>
+        <v>0.074879071179087</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.896237723671272</v>
+        <v>0.103762276328728</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.734183495015057</v>
+        <v>0.265816504984943</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0128109862147015</v>
+        <v>0.987189013785299</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.04320536648685</v>
+        <v>0.14346290474429</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0.365384615384615</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>0.36</v>
+        <v>0.9</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0522932419239053</v>
+        <v>-0.010024710773871</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.104477720553905</v>
+        <v>-0.0260751450240187</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0353889567760964</v>
+        <v>0.0015829884571265</v>
       </c>
       <c r="N28" t="n">
-        <v>-14.5259005344181</v>
+        <v>-1.11385675265234</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2993,7 +2993,11 @@
           <t>Whai_2g</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3003,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5</v>
+        <v>0.536968589253111</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0.864705882352941</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>111.3</v>
+        <v>10.16</v>
       </c>
       <c r="K29" t="n">
-        <v>0.174959906676238</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-3.75071748569914</v>
+        <v>-0.0191833300936356</v>
       </c>
       <c r="M29" t="n">
-        <v>1.61276430770368</v>
+        <v>0.0180758557077688</v>
       </c>
       <c r="N29" t="n">
-        <v>0.157196681649809</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3051,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3080,7 +3084,11 @@
           <t>Whai_2g</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3090,11 +3098,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3105,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.110335680959923</v>
+        <v>0.0013109333588512</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.0114942528735632</v>
       </c>
       <c r="H30" t="n">
+        <v>0.160919540229885</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>5.4</v>
+        <v>0.015</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.198897207829955</v>
+        <v>0.0002909585767392</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.914236064312707</v>
+        <v>0.0001104481427857</v>
       </c>
       <c r="M30" t="n">
-        <v>0.117844068714728</v>
+        <v>0.0004735718905811</v>
       </c>
       <c r="N30" t="n">
-        <v>-3.68328162648064</v>
+        <v>1.93972384492831</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3138,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3167,7 +3175,11 @@
           <t>Whai_2g</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3177,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3192,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.036819135060151</v>
+        <v>0.701558565777084</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="H31" t="n">
+        <v>0.722543352601156</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>0.4555</v>
+        <v>180</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0183125734430082</v>
+        <v>-0.836195054945055</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0442529467723799</v>
+        <v>-5.0066825338286</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.006414755049935</v>
+        <v>2.61173791493401</v>
       </c>
       <c r="N31" t="n">
-        <v>-4.02032347815768</v>
+        <v>-0.464552808302808</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3254,7 +3266,11 @@
           <t>Whai_2g</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3264,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.185546684761349</v>
+        <v>0.0011049918577051</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.838709677419355</v>
       </c>
       <c r="H32" t="n">
+        <v>0.161290322580645</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>111.65</v>
+        <v>0.005</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.613923512747876</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.75473653286767</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.661451588562855</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.5498643195234</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3312,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3341,7 +3357,11 @@
           <t>Whai_2g</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3351,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.8584345646688269</v>
+        <v>0.0047518651644879</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.361842105263158</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.118421052631579</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>4.88</v>
+        <v>0.003</v>
       </c>
       <c r="K33" t="n">
-        <v>0.103866627497062</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0556810226810014</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.33662264082475</v>
+        <v>0.0001166280751664</v>
       </c>
       <c r="N33" t="n">
-        <v>2.12841449789062</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3399,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3428,7 +3448,1075 @@
           <t>Whai_2g</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.06651124854717499</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.941935483870968</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0028922726930603</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0003395715889363</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0060874804577787</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.892676757117396</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.999960433875159</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.481707317073171</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0183321268705522</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.010932459121164</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0257481504923687</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.246068817054392</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.127442636037625</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.867816091954023</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.3135</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0018337517115472</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0007127622144746</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0045745596868884</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.584928775613154</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.41684510246238</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.591954022988506</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0038257650173005</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0044986467763216</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.269379678432369</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.362068965517241</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0001177845856175</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0002217706287517</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0005115571337906</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.318336717885251</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.689421024118322</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.908045977011494</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4.635</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0181806869089099</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.066310132091635</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0437140873206627</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.392247829749943</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.04320536648685</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0522932419239053</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.104477720553905</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.0353889567760964</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-14.5259005344181</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>111.3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.174959906676238</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-3.75071748569914</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.61276430770368</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.157196681649809</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.198897207829955</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.914236064312707</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.117844068714728</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-3.68328162648064</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.036819135060151</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.4555</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0183125734430082</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0442529467723799</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.006414755049935</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-4.02032347815768</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.185546684761349</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>111.65</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.613923512747876</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-1.75473653286767</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.661451588562855</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.5498643195234</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8584345646688269</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.103866627497062</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.0556810226810014</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.33662264082475</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.12841449789062</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OngarueatTaringamotu_a384421aec.xlsx
+++ b/trend_results/Rivers/OngarueatTaringamotu_a384421aec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8218833034002681</v>
+        <v>0.044136467556705</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.0612244897959184</v>
       </c>
       <c r="H2" t="n">
-        <v>0.357142857142857</v>
+        <v>0.469387755102041</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0456956427955133</v>
+        <v>-0.11507767262012</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0235686257485383</v>
+        <v>-0.219720471680753</v>
       </c>
       <c r="M2" t="n">
-        <v>0.148873590218776</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.07729364394593</v>
+        <v>-14.384709077515</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.074879071179087</v>
+        <v>0.022113109767437</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.912280701754386</v>
+        <v>0.910714285714286</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.27</v>
+        <v>10.3</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0574346546310838</v>
+        <v>-0.07406550357686249</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.108601487044682</v>
+        <v>-0.117123314298577</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0.0200686813186812</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.559246880536356</v>
+        <v>-0.719082558998665</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,11 +751,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.404494601200507</v>
+        <v>0.267220382667014</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>0.016</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.0003160969869231</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.000820241844507</v>
+        <v>-0.0005998256281999</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0016066727350626</v>
+        <v>0.0014116319653629</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.97560616826945</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0414865303622063</v>
+        <v>0.0050826009459781</v>
       </c>
       <c r="G5" t="n">
         <v>0.0175438596491228</v>
       </c>
       <c r="H5" t="n">
-        <v>0.789473684210526</v>
+        <v>0.87719298245614</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K5" t="n">
-        <v>22.1230621319553</v>
+        <v>28.3937713530311</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28172343846995</v>
+        <v>7.12654427797581</v>
       </c>
       <c r="M5" t="n">
-        <v>37.3856978319392</v>
+        <v>52.315342014013</v>
       </c>
       <c r="N5" t="n">
-        <v>13.0135659599737</v>
+        <v>15.1030698686335</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,17 +933,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.170200702592373</v>
+        <v>0.876783923148059</v>
       </c>
       <c r="G6" t="n">
-        <v>0.708333333333333</v>
+        <v>0.725490196078431</v>
       </c>
       <c r="H6" t="n">
-        <v>0.291666666666667</v>
+        <v>0.294117647058824</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.48035736089772</v>
+        <v>0.9976121313687339</v>
       </c>
       <c r="G7" t="n">
-        <v>0.228070175438596</v>
+        <v>0.315789473684211</v>
       </c>
       <c r="H7" t="n">
         <v>0.157894736842105</v>
@@ -1043,16 +1043,16 @@
         <v>0.003</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.000351374834806</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0006067275747508</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-11.7124944935348</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9239536837592101</v>
+        <v>0.0001105881762928</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1131,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.324</v>
+        <v>0.342</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0230789835164835</v>
+        <v>0.0351993874801744</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0375424016678361</v>
+        <v>0.024794805374246</v>
       </c>
       <c r="M8" t="n">
-        <v>3.88769776216123e-05</v>
+        <v>0.0537555945526882</v>
       </c>
       <c r="N8" t="n">
-        <v>-7.12314306064305</v>
+        <v>10.2922185614545</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.103762276328728</v>
+        <v>0.003127986254013</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.701754385964912</v>
+        <v>0.771929824561403</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.5</v>
+        <v>7.46</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.022330389848247</v>
+        <v>-0.0535491953034739</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0524797340179242</v>
+        <v>-0.08238721804511311</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00856955478904</v>
+        <v>-0.0260892857142852</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.297738531309961</v>
+        <v>-0.717817631413859</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.970247657179785</v>
+        <v>0.0003469188754496</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9649122807017541</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.333</v>
+        <v>0.357</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0201394978376886</v>
+        <v>0.0371802351074943</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.034560162498428</v>
+        <v>0.0218840756730805</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0051528174544555</v>
+        <v>0.0519573484254448</v>
       </c>
       <c r="N10" t="n">
-        <v>-6.04789724855514</v>
+        <v>10.4146316827715</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1384,35 +1384,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.799192986314685</v>
+        <v>0.009384084796837999</v>
       </c>
       <c r="G11" t="n">
-        <v>0.12280701754386</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.543859649122807</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>0.51</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.501717032967033</v>
+        <v>0.054500864081301</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.49907445006828</v>
+        <v>0.02078721298928</v>
       </c>
       <c r="M11" t="n">
-        <v>0.316585667081388</v>
+        <v>0.0843337817677252</v>
       </c>
       <c r="N11" t="n">
-        <v>-5.5746336996337</v>
+        <v>10.68644393751</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.970970031731474</v>
+        <v>0.008224822541573701</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.701754385964912</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.48</v>
+        <v>0.036</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0274039113576297</v>
+        <v>0.0028560486829471</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0397551020408164</v>
+        <v>0.0008208230943215</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0100343406593407</v>
+        <v>0.0052847073242629</v>
       </c>
       <c r="N12" t="n">
-        <v>-5.70914819950619</v>
+        <v>7.9334685637421</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.104856078846445</v>
+        <v>0.0567181904180913</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.56140350877193</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.037</v>
+        <v>4.04</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0015894920594589</v>
+        <v>0.493355082417582</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0004977219388164</v>
+        <v>-0.0056534803260878</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0039020237155597</v>
+        <v>1.04016150161346</v>
       </c>
       <c r="N13" t="n">
-        <v>4.29592448502425</v>
+        <v>12.2117594657817</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.751241111935006</v>
+        <v>0.093357822934292</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0808080808080808</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9649122807017541</v>
+        <v>0.373737373737374</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>4.27</v>
+        <v>0.8</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.114032106101446</v>
+        <v>-0.0285128805620609</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.530510026210672</v>
+        <v>-0.0727227476356396</v>
       </c>
       <c r="M14" t="n">
-        <v>0.17725314256975</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-2.67054112649756</v>
+        <v>-3.56411007025761</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1748,35 +1748,35 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.318245044007237</v>
+        <v>0.248020784726182</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0769230769230769</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.336538461538462</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9</v>
+        <v>10.245</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.0149557931798916</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0496938775510204</v>
+        <v>-0.044194037869901</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0249421451894986</v>
+        <v>0.0182723497599058</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>-0.145981387797868</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.265816504984943</v>
+        <v>0.56749232565469</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.866071428571429</v>
+        <v>0.241379310344828</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.24</v>
+        <v>0.016</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0113355099298683</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0397405172589959</v>
+        <v>-0.0002850729069016</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0147321478079598</v>
+        <v>0.0002502554128707</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.11069833915887</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.187330003534864</v>
+        <v>0.0312998567174517</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0086206896551724</v>
+        <v>0.008695652173913</v>
       </c>
       <c r="H17" t="n">
-        <v>0.241379310344828</v>
+        <v>0.730434782608696</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.016</v>
+        <v>173</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001282803192494</v>
+        <v>7.61031241557163</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.483228733607694</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0005571387710579</v>
+        <v>16.9776966456428</v>
       </c>
       <c r="N17" t="n">
-        <v>0.801751995309113</v>
+        <v>4.39902451767146</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.350727216923003</v>
+        <v>0.073882905858266</v>
       </c>
       <c r="G18" t="n">
-        <v>0.008695652173913</v>
+        <v>0.805825242718447</v>
       </c>
       <c r="H18" t="n">
-        <v>0.71304347826087</v>
+        <v>0.194174757281553</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>156</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>1.0847074538085</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.32421162779974</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>9.13988886592375</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.695325290902882</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.002244961204295</v>
+        <v>0.999936578452823</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.224137931034483</v>
       </c>
       <c r="H19" t="n">
-        <v>0.19</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.0002432580650169</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0003685059368609</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-8.10860216723073</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.995247417627832</v>
+        <v>7.95445767608499e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>0.172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.155172413793103</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003</v>
+        <v>0.3405</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.000181806869089</v>
+        <v>0.0136552431610942</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0003302441229656</v>
+        <v>0.007835570390518199</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0197402322546625</v>
       </c>
       <c r="N20" t="n">
-        <v>-6.06022896963663</v>
+        <v>4.01035041441828</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0527804501592045</v>
+        <v>0.261438117435688</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.974137931034483</v>
+        <v>0.508928571428571</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.31465</v>
+        <v>7.465</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0043343222272934</v>
+        <v>-0.0034441676417866</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0001457721952977</v>
+        <v>-0.0140381003018919</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0099449890043049</v>
+        <v>0.0065464494632803</v>
       </c>
       <c r="N21" t="n">
-        <v>1.37750587233227</v>
+        <v>-0.0461375437613753</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Whai_2g</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.987189013785299</v>
+        <v>6.39717426506118e-05</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.532110091743119</v>
+        <v>0.939655172413793</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.47</v>
+        <v>0.3585</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0145345337855813</v>
+        <v>0.0147747957992999</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0038246432861247</v>
+        <v>0.008226516071571099</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0253635901395107</v>
+        <v>0.0212093878496195</v>
       </c>
       <c r="N22" t="n">
-        <v>0.194572072096135</v>
+        <v>4.1212819523849</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Whai_2g</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0276896061929902</v>
+        <v>0.0493834880195721</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.922413793103448</v>
+        <v>0.629310344827586</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3245</v>
+        <v>0.5125</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0057729483282674</v>
+        <v>0.008807211101000899</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0009958827200401</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0103879522411123</v>
+        <v>0.0178991807058698</v>
       </c>
       <c r="N23" t="n">
-        <v>1.77902876063713</v>
+        <v>1.71848021482945</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2552,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.808015695089229</v>
+        <v>0.134958461479287</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0603448275862069</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.353448275862069</v>
+        <v>0.431034482758621</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>9.5</v>
+        <v>0.0375</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.166173794358508</v>
+        <v>0.0004050465226959</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.496801537532627</v>
+        <v>-0.0002080088066189</v>
       </c>
       <c r="M24" t="n">
-        <v>0.166173794358508</v>
+        <v>0.0011125600351278</v>
       </c>
       <c r="N24" t="n">
-        <v>-1.74919783535271</v>
+        <v>1.08012406052255</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.403782070127692</v>
+        <v>0.304079643857185</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.672413793103448</v>
+        <v>0.939655172413793</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.475</v>
+        <v>4.775</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001668570123343</v>
+        <v>0.0441777214202107</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0057144308448903</v>
+        <v>-0.0650070467776338</v>
       </c>
       <c r="M25" t="n">
-        <v>0.008806009833989201</v>
+        <v>0.260837452974604</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0351277920703999</v>
+        <v>0.925187883145773</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.29636168444501</v>
+        <v>0.0789727558228021</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0536912751677852</v>
       </c>
       <c r="H26" t="n">
-        <v>0.448275862068966</v>
+        <v>0.389261744966443</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>0.037</v>
+        <v>0.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001946988728242</v>
+        <v>-0.0142899061032864</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.000453660038924</v>
+        <v>-0.0332347588717015</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0009430976097689</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.526213169795309</v>
+        <v>-1.7862382629108</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.7145312811054541</v>
+        <v>0.7824015950687661</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.931034482758621</v>
+        <v>0.834319526627219</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4.775</v>
+        <v>10.18</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0300308324768756</v>
+        <v>0.0112108706010329</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.149903439008376</v>
+        <v>-0.0106439092142513</v>
       </c>
       <c r="M27" t="n">
-        <v>0.07018455751454961</v>
+        <v>0.0300402593841198</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.628917957630902</v>
+        <v>0.11012643026555</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0016338193866441</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0114942528735632</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.160919540229885</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0.14346290474429</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0576923076923077</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.365384615384615</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4</v>
-      </c>
       <c r="J28" t="n">
-        <v>0.9</v>
+        <v>0.015</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.010024710773871</v>
+        <v>0.0002630220835333</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0260751450240187</v>
+        <v>9.69673067137156e-05</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0015829884571265</v>
+        <v>0.0004364787124111</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.11385675265234</v>
+        <v>1.7534805568891</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3018,35 +3018,35 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.536968589253111</v>
+        <v>0.3986021625249</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="H29" t="n">
-        <v>0.864705882352941</v>
+        <v>0.728323699421965</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>10.16</v>
+        <v>180</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.601399560922064</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0191833300936356</v>
+        <v>-3.02439172607638</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0180758557077688</v>
+        <v>4.27177753083501</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>0.334110867178924</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3109,35 +3109,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0013109333588512</v>
+        <v>0.0263325401741055</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0114942528735632</v>
+        <v>0.832258064516129</v>
       </c>
       <c r="H30" t="n">
-        <v>0.160919540229885</v>
+        <v>0.167741935483871</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0002909585767392</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0001104481427857</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0004735718905811</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1.93972384492831</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.701558565777084</v>
+        <v>0.13696871861684</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0115606936416185</v>
+        <v>0.384146341463415</v>
       </c>
       <c r="H31" t="n">
-        <v>0.722543352601156</v>
+        <v>0.109756097560976</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>180</v>
+        <v>0.00275</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.836195054945055</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-5.0066825338286</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>2.61173791493401</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.464552808302808</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0011049918577051</v>
+        <v>0.0009745785119123</v>
       </c>
       <c r="G32" t="n">
-        <v>0.838709677419355</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.161290322580645</v>
+        <v>0.951219512195122</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.3355</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0063994485670218</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.0026720637149627</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.009665352931655701</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.90743623458177</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,35 +3382,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0047518651644879</v>
+        <v>0.975415724842661</v>
       </c>
       <c r="G33" t="n">
-        <v>0.361842105263158</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.118421052631579</v>
+        <v>0.463414634146341</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.003</v>
+        <v>7.44</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.008333571332916</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.0012082811214119</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0001166280751664</v>
+        <v>0.0152740333544709</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.112010367377904</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Whai_2g</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.06651124854717499</v>
+        <v>0.0032058533478164</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.941935483870968</v>
+        <v>0.902298850574713</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.324</v>
+        <v>0.3405</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0028922726930603</v>
+        <v>0.0055600117096018</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0003395715889363</v>
+        <v>0.0022687371518062</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0060874804577787</v>
+        <v>0.0085799362237434</v>
       </c>
       <c r="N34" t="n">
-        <v>0.892676757117396</v>
+        <v>1.63289624364225</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.999960433875159</v>
+        <v>0.0668776168843223</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.481707317073171</v>
+        <v>0.597701149425287</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.45</v>
+        <v>0.50575</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0183321268705522</v>
+        <v>0.0040137362637362</v>
       </c>
       <c r="L35" t="n">
-        <v>0.010932459121164</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0257481504923687</v>
+        <v>0.0083445407532207</v>
       </c>
       <c r="N35" t="n">
-        <v>0.246068817054392</v>
+        <v>0.793620615667082</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Whai_2g</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.127442636037625</v>
+        <v>0.234113831164971</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.867816091954023</v>
+        <v>0.362068965517241</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3135</v>
+        <v>0.038</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0018337517115472</v>
+        <v>0.0001600569675723</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0007127622144746</v>
+        <v>-0.0002070578231292</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0045745596868884</v>
+        <v>0.0005407491505412</v>
       </c>
       <c r="N36" t="n">
-        <v>0.584928775613154</v>
+        <v>0.421202546242905</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3742,35 +3742,35 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.41684510246238</v>
+        <v>0.749819733753643</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.591954022988506</v>
+        <v>0.919540229885057</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.485</v>
+        <v>4.895</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-0.0224692412850307</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0038257650173005</v>
+        <v>-0.0829729605595888</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0044986467763216</v>
+        <v>0.0457889329791156</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-0.459024336772844</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -3837,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.269379678432369</v>
+        <v>0.5</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.362068965517241</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.037</v>
+        <v>0.36</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0001177845856175</v>
+        <v>-0.00968903521665</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0002217706287517</v>
+        <v>-0.0603304013580833</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0005115571337906</v>
+        <v>0.06265512691013771</v>
       </c>
       <c r="N38" t="n">
-        <v>0.318336717885251</v>
+        <v>-2.69139867129167</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3899,11 +3899,7 @@
           <t>Whai_2g</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,46 +3909,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.689421024118322</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.908045977011494</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>4.635</v>
+        <v>110</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0181806869089099</v>
+        <v>0.653496494464944</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.066310132091635</v>
+        <v>-3.05568374467337</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0437140873206627</v>
+        <v>1.69681369570067</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.392247829749943</v>
+        <v>0.594087722240858</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3957,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3990,11 +3986,7 @@
           <t>Whai_2g</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4004,7 +3996,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,7 +4011,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.04320536648685</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4031,19 +4023,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.36</v>
+        <v>5.4</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0522932419239053</v>
+        <v>0.235727590505628</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.104477720553905</v>
+        <v>-0.914236064312707</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0353889567760964</v>
+        <v>0.600566620330414</v>
       </c>
       <c r="N40" t="n">
-        <v>-14.5259005344181</v>
+        <v>4.36532575010422</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4044,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4091,11 +4083,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4106,7 +4098,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.5</v>
+        <v>0.105248850027669</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -4118,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>111.3</v>
+        <v>0.4555</v>
       </c>
       <c r="K41" t="n">
-        <v>0.174959906676238</v>
+        <v>-0.0123375883739199</v>
       </c>
       <c r="L41" t="n">
-        <v>-3.75071748569914</v>
+        <v>-0.0442529467723799</v>
       </c>
       <c r="M41" t="n">
-        <v>1.61276430770368</v>
+        <v>0.0055045939259218</v>
       </c>
       <c r="N41" t="n">
-        <v>0.157196681649809</v>
+        <v>-2.70858142127769</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4139,7 +4131,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4178,11 +4170,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -4193,7 +4185,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.110335680959923</v>
+        <v>0.360257393568128</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -4205,19 +4197,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>5.4</v>
+        <v>110.65</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.198897207829955</v>
+        <v>-0.287221494102229</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.914236064312707</v>
+        <v>-0.98928773404064</v>
       </c>
       <c r="M42" t="n">
-        <v>0.117844068714728</v>
+        <v>0.738317956968497</v>
       </c>
       <c r="N42" t="n">
-        <v>-3.68328162648064</v>
+        <v>-0.259576587530256</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4226,7 +4218,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4265,7 +4257,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4280,7 +4272,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.036819135060151</v>
+        <v>0.8584345646688269</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4292,19 +4284,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4555</v>
+        <v>5.275</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0183125734430082</v>
+        <v>0.0660090361445789</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0442529467723799</v>
+        <v>-0.0556810226810014</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.006414755049935</v>
+        <v>0.283804854722647</v>
       </c>
       <c r="N43" t="n">
-        <v>-4.02032347815768</v>
+        <v>1.25135613544225</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4313,7 +4305,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4343,180 +4335,6 @@
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Ongarue at Taringamotu</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>10</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>0.185546684761349</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>111.65</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-0.613923512747876</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-1.75473653286767</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.661451588562855</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-0.5498643195234</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>1794198</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5696131</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>Cherry Grove</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Whai_2g</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Ongarue at Taringamotu</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>10</v>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0.8584345646688269</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.103866627497062</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-0.0556810226810014</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.33662264082475</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2.12841449789062</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>1794198</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5696131</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>Cherry Grove</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Whai_2g</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OngarueatTaringamotu_a384421aec.xlsx
+++ b/trend_results/Rivers/OngarueatTaringamotu_a384421aec.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="66">
   <si>
     <t>site name</t>
   </si>
@@ -151,37 +151,40 @@
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Extremely unlikely increasing</t>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
   </si>
   <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
     <t>Likely improving</t>
   </si>
   <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
+    <t>As likely as not increasing</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
     <t>Likely increasing</t>
   </si>
   <si>
-    <t>Extremely likely increasing</t>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
   </si>
   <si>
     <t>Ruapehu District</t>
@@ -660,31 +663,31 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.044136467556705</v>
+        <v>0.014292894669054</v>
       </c>
       <c r="G2">
-        <v>0.0612244897959184</v>
+        <v>0.0444444444444444</v>
       </c>
       <c r="H2">
-        <v>0.469387755102041</v>
+        <v>0.6</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K2">
-        <v>-0.11507767262012</v>
+        <v>-0.107904273922495</v>
       </c>
       <c r="L2">
-        <v>-0.219720471680753</v>
+        <v>-0.207135332429838</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-0.0182817056328565</v>
       </c>
       <c r="N2">
-        <v>-14.384709077515</v>
+        <v>-21.580854784499</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
@@ -699,19 +702,19 @@
         <v>5696131</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -731,31 +734,31 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.022113109767437</v>
+        <v>0.145840933020047</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.910714285714286</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.3</v>
+        <v>10.285</v>
       </c>
       <c r="K3">
-        <v>-0.07406550357686249</v>
+        <v>-0.0602060439560442</v>
       </c>
       <c r="L3">
-        <v>-0.117123314298577</v>
+        <v>-0.137154277919169</v>
       </c>
       <c r="M3">
-        <v>-0.0200686813186812</v>
+        <v>0.0441263365883517</v>
       </c>
       <c r="N3">
-        <v>-0.719082558998665</v>
+        <v>-0.585377189655267</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
@@ -770,19 +773,19 @@
         <v>5696131</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -802,31 +805,31 @@
         <v>39</v>
       </c>
       <c r="F4">
-        <v>0.267220382667014</v>
+        <v>0.0033945823530706</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.43859649122807</v>
+        <v>0.421052631578947</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="K4">
-        <v>0.0003160969869231</v>
+        <v>0.0011638503909026</v>
       </c>
       <c r="L4">
-        <v>-0.0005998256281999</v>
+        <v>0.0005417131207460999</v>
       </c>
       <c r="M4">
-        <v>0.0014116319653629</v>
+        <v>0.0019325396825396</v>
       </c>
       <c r="N4">
-        <v>1.97560616826945</v>
+        <v>7.75900260601753</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
@@ -841,19 +844,19 @@
         <v>5696131</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -873,31 +876,31 @@
         <v>39</v>
       </c>
       <c r="F5">
-        <v>0.0050826009459781</v>
+        <v>0.105063423334637</v>
       </c>
       <c r="G5">
-        <v>0.0175438596491228</v>
+        <v>0.0363636363636364</v>
       </c>
       <c r="H5">
-        <v>0.87719298245614</v>
+        <v>0.890909090909091</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>188</v>
+        <v>201.6</v>
       </c>
       <c r="K5">
-        <v>28.3937713530311</v>
+        <v>21.3707450444293</v>
       </c>
       <c r="L5">
-        <v>7.12654427797581</v>
+        <v>-6.02078848223238</v>
       </c>
       <c r="M5">
-        <v>52.315342014013</v>
+        <v>53.9180226414642</v>
       </c>
       <c r="N5">
-        <v>15.1030698686335</v>
+        <v>10.6005679783875</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
@@ -912,19 +915,19 @@
         <v>5696131</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -944,13 +947,13 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.876783923148059</v>
+        <v>0.7943733097086459</v>
       </c>
       <c r="G6">
-        <v>0.725490196078431</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="H6">
-        <v>0.294117647058824</v>
+        <v>0.215686274509804</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -983,19 +986,19 @@
         <v>5696131</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1015,10 +1018,10 @@
         <v>41</v>
       </c>
       <c r="F7">
-        <v>0.9976121313687339</v>
+        <v>0.999985493093752</v>
       </c>
       <c r="G7">
-        <v>0.315789473684211</v>
+        <v>0.421052631578947</v>
       </c>
       <c r="H7">
         <v>0.157894736842105</v>
@@ -1027,19 +1030,19 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K7">
-        <v>-0.000351374834806</v>
+        <v>-0.0004285732356087</v>
       </c>
       <c r="L7">
-        <v>-0.0006067275747508</v>
+        <v>-0.0007297702297702</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-11.7124944935348</v>
+        <v>-21.4286617804377</v>
       </c>
       <c r="O7" t="s">
         <v>43</v>
@@ -1054,19 +1057,19 @@
         <v>5696131</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1086,7 +1089,7 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>0.0001105881762928</v>
+        <v>0.0567181904180913</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1101,22 +1104,22 @@
         <v>0.342</v>
       </c>
       <c r="K8">
-        <v>0.0351993874801744</v>
+        <v>0.0169747596153846</v>
       </c>
       <c r="L8">
-        <v>0.024794805374246</v>
+        <v>-0.0006522490674362</v>
       </c>
       <c r="M8">
-        <v>0.0537555945526882</v>
+        <v>0.0343288362185828</v>
       </c>
       <c r="N8">
-        <v>10.2922185614545</v>
+        <v>4.96338000449843</v>
       </c>
       <c r="O8" t="s">
         <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q8">
         <v>1794198</v>
@@ -1125,19 +1128,19 @@
         <v>5696131</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1157,37 +1160,37 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.003127986254013</v>
+        <v>0.637130189929172</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.771929824561403</v>
+        <v>0.759259259259259</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.46</v>
+        <v>7.47</v>
       </c>
       <c r="K9">
-        <v>-0.0535491953034739</v>
+        <v>0.0050171703296702</v>
       </c>
       <c r="L9">
-        <v>-0.08238721804511311</v>
+        <v>-0.0299834035565382</v>
       </c>
       <c r="M9">
-        <v>-0.0260892857142852</v>
+        <v>0.0384397553250538</v>
       </c>
       <c r="N9">
-        <v>-0.717817631413859</v>
+        <v>0.0671642614413684</v>
       </c>
       <c r="O9" t="s">
         <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q9">
         <v>1794198</v>
@@ -1196,16 +1199,16 @@
         <v>5696131</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1225,7 +1228,7 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.0003469188754496</v>
+        <v>0.0567181904180913</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1240,22 +1243,22 @@
         <v>0.357</v>
       </c>
       <c r="K10">
-        <v>0.0371802351074943</v>
+        <v>0.0161803743131868</v>
       </c>
       <c r="L10">
-        <v>0.0218840756730805</v>
+        <v>-0.002251303567345</v>
       </c>
       <c r="M10">
-        <v>0.0519573484254448</v>
+        <v>0.0284007712193999</v>
       </c>
       <c r="N10">
-        <v>10.4146316827715</v>
+        <v>4.53231773478622</v>
       </c>
       <c r="O10" t="s">
         <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q10">
         <v>1794198</v>
@@ -1264,19 +1267,19 @@
         <v>5696131</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1296,31 +1299,31 @@
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.009384084796837999</v>
+        <v>0.245859480110934</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.754385964912281</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="K11">
-        <v>0.054500864081301</v>
+        <v>0.008730087378260301</v>
       </c>
       <c r="L11">
-        <v>0.02078721298928</v>
+        <v>-0.010207759893655</v>
       </c>
       <c r="M11">
-        <v>0.0843337817677252</v>
+        <v>0.0366466793150025</v>
       </c>
       <c r="N11">
-        <v>10.68644393751</v>
+        <v>1.67886295735776</v>
       </c>
       <c r="O11" t="s">
         <v>43</v>
@@ -1335,19 +1338,19 @@
         <v>5696131</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1367,37 +1370,37 @@
         <v>39</v>
       </c>
       <c r="F12">
-        <v>0.008224822541573701</v>
+        <v>0.3371185705543</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.526315789473684</v>
+        <v>0.596491228070175</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="K12">
-        <v>0.0028560486829471</v>
+        <v>0.0004383273461571</v>
       </c>
       <c r="L12">
-        <v>0.0008208230943215</v>
+        <v>-0.0014940407610155</v>
       </c>
       <c r="M12">
-        <v>0.0052847073242629</v>
+        <v>0.0023996079517728</v>
       </c>
       <c r="N12">
-        <v>7.9334685637421</v>
+        <v>1.18466850312748</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q12">
         <v>1794198</v>
@@ -1406,19 +1409,19 @@
         <v>5696131</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1438,7 +1441,7 @@
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.0567181904180913</v>
+        <v>0.469957046613374</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1450,25 +1453,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.04</v>
+        <v>4.46</v>
       </c>
       <c r="K13">
-        <v>0.493355082417582</v>
+        <v>0.0887944484760522</v>
       </c>
       <c r="L13">
-        <v>-0.0056534803260878</v>
+        <v>-0.43599776899641</v>
       </c>
       <c r="M13">
-        <v>1.04016150161346</v>
+        <v>0.42698437861201</v>
       </c>
       <c r="N13">
-        <v>12.2117594657817</v>
+        <v>1.99090691650341</v>
       </c>
       <c r="O13" t="s">
         <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q13">
         <v>1794198</v>
@@ -1477,19 +1480,19 @@
         <v>5696131</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1509,37 +1512,37 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>0.093357822934292</v>
+        <v>0.048583000953985</v>
       </c>
       <c r="G14">
-        <v>0.0808080808080808</v>
+        <v>0.06</v>
       </c>
       <c r="H14">
-        <v>0.373737373737374</v>
+        <v>0.4</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>0.8</v>
       </c>
       <c r="K14">
-        <v>-0.0285128805620609</v>
+        <v>-0.0340813805940131</v>
       </c>
       <c r="L14">
-        <v>-0.0727227476356396</v>
+        <v>-0.0674722906403941</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>-3.56411007025761</v>
+        <v>-4.26017257425163</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q14">
         <v>1794198</v>
@@ -1548,19 +1551,19 @@
         <v>5696131</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1580,37 +1583,37 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.248020784726182</v>
+        <v>0.09069165989033499</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.857142857142857</v>
+        <v>0.830357142857143</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.245</v>
+        <v>10.255</v>
       </c>
       <c r="K15">
-        <v>-0.0149557931798916</v>
+        <v>-0.0200686813186809</v>
       </c>
       <c r="L15">
-        <v>-0.044194037869901</v>
+        <v>-0.0548290974476799</v>
       </c>
       <c r="M15">
-        <v>0.0182723497599058</v>
+        <v>0.0041207695770492</v>
       </c>
       <c r="N15">
-        <v>-0.145981387797868</v>
+        <v>-0.195696551132919</v>
       </c>
       <c r="O15" t="s">
         <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q15">
         <v>1794198</v>
@@ -1619,19 +1622,19 @@
         <v>5696131</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1651,13 +1654,13 @@
         <v>42</v>
       </c>
       <c r="F16">
-        <v>0.56749232565469</v>
+        <v>0.27944789615969</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.241379310344828</v>
+        <v>0.232758620689655</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1669,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.0002850729069016</v>
+        <v>-0.000124335576789</v>
       </c>
       <c r="M16">
-        <v>0.0002502554128707</v>
+        <v>0.0003687531549722</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1681,7 +1684,7 @@
         <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q16">
         <v>1794198</v>
@@ -1690,19 +1693,19 @@
         <v>5696131</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1722,31 +1725,31 @@
         <v>39</v>
       </c>
       <c r="F17">
-        <v>0.0312998567174517</v>
+        <v>0.0118772560898258</v>
       </c>
       <c r="G17">
-        <v>0.008695652173913</v>
+        <v>0.0176991150442478</v>
       </c>
       <c r="H17">
-        <v>0.730434782608696</v>
+        <v>0.752212389380531</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="K17">
-        <v>7.61031241557163</v>
+        <v>9.721584685482981</v>
       </c>
       <c r="L17">
-        <v>0.483228733607694</v>
+        <v>2.66334800384578</v>
       </c>
       <c r="M17">
-        <v>16.9776966456428</v>
+        <v>18.9532432771587</v>
       </c>
       <c r="N17">
-        <v>4.39902451767146</v>
+        <v>5.40088038082388</v>
       </c>
       <c r="O17" t="s">
         <v>43</v>
@@ -1761,19 +1764,19 @@
         <v>5696131</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1793,13 +1796,13 @@
         <v>41</v>
       </c>
       <c r="F18">
-        <v>0.073882905858266</v>
+        <v>0.244815637843924</v>
       </c>
       <c r="G18">
-        <v>0.805825242718447</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="H18">
-        <v>0.194174757281553</v>
+        <v>0.192307692307692</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1823,7 +1826,7 @@
         <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q18">
         <v>1794198</v>
@@ -1832,19 +1835,19 @@
         <v>5696131</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1864,13 +1867,13 @@
         <v>41</v>
       </c>
       <c r="F19">
-        <v>0.999936578452823</v>
+        <v>0.999999925718062</v>
       </c>
       <c r="G19">
-        <v>0.224137931034483</v>
+        <v>0.301724137931034</v>
       </c>
       <c r="H19">
-        <v>0.146551724137931</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1879,16 +1882,16 @@
         <v>0.003</v>
       </c>
       <c r="K19">
-        <v>-0.0002432580650169</v>
+        <v>-0.0003240905057675</v>
       </c>
       <c r="L19">
-        <v>-0.0003685059368609</v>
+        <v>-0.0004498152709359</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-0.0002115745227389</v>
       </c>
       <c r="N19">
-        <v>-8.10860216723073</v>
+        <v>-10.8030168589175</v>
       </c>
       <c r="O19" t="s">
         <v>43</v>
@@ -1903,19 +1906,19 @@
         <v>5696131</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1935,37 +1938,37 @@
         <v>39</v>
       </c>
       <c r="F20">
-        <v>7.95445767608499E-05</v>
+        <v>0.0803567687788294</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.9655172413793101</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3405</v>
+        <v>0.3455</v>
       </c>
       <c r="K20">
-        <v>0.0136552431610942</v>
+        <v>0.0047980295566502</v>
       </c>
       <c r="L20">
-        <v>0.007835570390518199</v>
+        <v>-0.001000637172259</v>
       </c>
       <c r="M20">
-        <v>0.0197402322546625</v>
+        <v>0.0105949936099036</v>
       </c>
       <c r="N20">
-        <v>4.01035041441828</v>
+        <v>1.38872056632424</v>
       </c>
       <c r="O20" t="s">
         <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q20">
         <v>1794198</v>
@@ -1974,19 +1977,19 @@
         <v>5696131</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2003,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F21">
-        <v>0.261438117435688</v>
+        <v>0.416327906389254</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2018,25 +2021,25 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.465</v>
+        <v>7.49</v>
       </c>
       <c r="K21">
-        <v>-0.0034441676417866</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>-0.0140381003018919</v>
+        <v>-0.0115428826049658</v>
       </c>
       <c r="M21">
-        <v>0.0065464494632803</v>
+        <v>0.009764376981901499</v>
       </c>
       <c r="N21">
-        <v>-0.0461375437613753</v>
+        <v>0</v>
       </c>
       <c r="O21" t="s">
         <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q21">
         <v>1794198</v>
@@ -2045,16 +2048,16 @@
         <v>5696131</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2074,37 +2077,37 @@
         <v>39</v>
       </c>
       <c r="F22">
-        <v>6.39717426506118E-05</v>
+        <v>0.08871237849397071</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.939655172413793</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3585</v>
+        <v>0.361</v>
       </c>
       <c r="K22">
-        <v>0.0147747957992999</v>
+        <v>0.005455601233299</v>
       </c>
       <c r="L22">
-        <v>0.008226516071571099</v>
+        <v>-0.0010979869897382</v>
       </c>
       <c r="M22">
-        <v>0.0212093878496195</v>
+        <v>0.0100434369453715</v>
       </c>
       <c r="N22">
-        <v>4.1212819523849</v>
+        <v>1.51124687903022</v>
       </c>
       <c r="O22" t="s">
         <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q22">
         <v>1794198</v>
@@ -2113,19 +2116,19 @@
         <v>5696131</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2142,40 +2145,40 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F23">
-        <v>0.0493834880195721</v>
+        <v>0.564582614606932</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.629310344827586</v>
+        <v>0.560344827586207</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5125</v>
+        <v>0.52</v>
       </c>
       <c r="K23">
-        <v>0.008807211101000899</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="M23">
-        <v>0.0178991807058698</v>
+        <v>0.0050033208618368</v>
       </c>
       <c r="N23">
-        <v>1.71848021482945</v>
+        <v>0</v>
       </c>
       <c r="O23" t="s">
         <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q23">
         <v>1794198</v>
@@ -2184,19 +2187,19 @@
         <v>5696131</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2216,37 +2219,37 @@
         <v>39</v>
       </c>
       <c r="F24">
-        <v>0.134958461479287</v>
+        <v>0.333648587669403</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.431034482758621</v>
+        <v>0.413793103448276</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0375</v>
+        <v>0.036</v>
       </c>
       <c r="K24">
-        <v>0.0004050465226959</v>
+        <v>0.0001242375110546</v>
       </c>
       <c r="L24">
-        <v>-0.0002080088066189</v>
+        <v>-0.0004280299833111</v>
       </c>
       <c r="M24">
-        <v>0.0011125600351278</v>
+        <v>0.0007484230223631</v>
       </c>
       <c r="N24">
-        <v>1.08012406052255</v>
+        <v>0.34510419737409</v>
       </c>
       <c r="O24" t="s">
         <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q24">
         <v>1794198</v>
@@ -2255,19 +2258,19 @@
         <v>5696131</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2287,13 +2290,13 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.304079643857185</v>
+        <v>0.723556556884693</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.939655172413793</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2302,22 +2305,22 @@
         <v>4.775</v>
       </c>
       <c r="K25">
-        <v>0.0441777214202107</v>
+        <v>-0.0439819376026273</v>
       </c>
       <c r="L25">
-        <v>-0.0650070467776338</v>
+        <v>-0.180033224354053</v>
       </c>
       <c r="M25">
-        <v>0.260837452974604</v>
+        <v>0.09873694974117241</v>
       </c>
       <c r="N25">
-        <v>0.925187883145773</v>
+        <v>-0.92108769848434</v>
       </c>
       <c r="O25" t="s">
         <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q25">
         <v>1794198</v>
@@ -2326,19 +2329,19 @@
         <v>5696131</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2355,16 +2358,16 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F26">
-        <v>0.0789727558228021</v>
+        <v>0.048518304792214</v>
       </c>
       <c r="G26">
-        <v>0.0536912751677852</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="H26">
-        <v>0.389261744966443</v>
+        <v>0.378378378378378</v>
       </c>
       <c r="I26">
         <v>4</v>
@@ -2373,22 +2376,22 @@
         <v>0.8</v>
       </c>
       <c r="K26">
-        <v>-0.0142899061032864</v>
+        <v>-0.0166616028336425</v>
       </c>
       <c r="L26">
-        <v>-0.0332347588717015</v>
+        <v>-0.0383473201451411</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>-1.7862382629108</v>
+        <v>-2.08270035420531</v>
       </c>
       <c r="O26" t="s">
         <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q26">
         <v>1794198</v>
@@ -2397,19 +2400,19 @@
         <v>5696131</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2429,31 +2432,31 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>0.7824015950687661</v>
+        <v>0.705198283391824</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.834319526627219</v>
+        <v>0.820359281437126</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.18</v>
+        <v>10.22</v>
       </c>
       <c r="K27">
-        <v>0.0112108706010329</v>
+        <v>0.0066469517743401</v>
       </c>
       <c r="L27">
-        <v>-0.0106439092142513</v>
+        <v>-0.0114356788111492</v>
       </c>
       <c r="M27">
-        <v>0.0300402593841198</v>
+        <v>0.0246817262369143</v>
       </c>
       <c r="N27">
-        <v>0.11012643026555</v>
+        <v>0.0650386670679077</v>
       </c>
       <c r="O27" t="s">
         <v>43</v>
@@ -2468,19 +2471,19 @@
         <v>5696131</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2500,10 +2503,10 @@
         <v>39</v>
       </c>
       <c r="F28">
-        <v>0.0016338193866441</v>
+        <v>0.004994235228047</v>
       </c>
       <c r="G28">
-        <v>0.0114942528735632</v>
+        <v>0.0057471264367816</v>
       </c>
       <c r="H28">
         <v>0.160919540229885</v>
@@ -2515,22 +2518,22 @@
         <v>0.015</v>
       </c>
       <c r="K28">
-        <v>0.0002630220835333</v>
+        <v>0.0002174107142857</v>
       </c>
       <c r="L28">
-        <v>9.69673067137156E-05</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0.0004364787124111</v>
+        <v>0.0003787221139091</v>
       </c>
       <c r="N28">
-        <v>1.7534805568891</v>
+        <v>1.44940476190476</v>
       </c>
       <c r="O28" t="s">
         <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q28">
         <v>1794198</v>
@@ -2539,19 +2542,19 @@
         <v>5696131</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2568,16 +2571,16 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F29">
-        <v>0.3986021625249</v>
+        <v>0.5</v>
       </c>
       <c r="G29">
-        <v>0.0115606936416185</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H29">
-        <v>0.728323699421965</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2586,22 +2589,22 @@
         <v>180</v>
       </c>
       <c r="K29">
-        <v>0.601399560922064</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>-3.02439172607638</v>
+        <v>-3.99640528143155</v>
       </c>
       <c r="M29">
-        <v>4.27177753083501</v>
+        <v>3.75711649223816</v>
       </c>
       <c r="N29">
-        <v>0.334110867178924</v>
+        <v>0</v>
       </c>
       <c r="O29" t="s">
         <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q29">
         <v>1794198</v>
@@ -2610,19 +2613,19 @@
         <v>5696131</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2642,13 +2645,13 @@
         <v>41</v>
       </c>
       <c r="F30">
-        <v>0.0263325401741055</v>
+        <v>0.0651665590906957</v>
       </c>
       <c r="G30">
-        <v>0.832258064516129</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="H30">
-        <v>0.167741935483871</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2672,7 +2675,7 @@
         <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q30">
         <v>1794198</v>
@@ -2681,19 +2684,19 @@
         <v>5696131</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2713,19 +2716,19 @@
         <v>41</v>
       </c>
       <c r="F31">
-        <v>0.13696871861684</v>
+        <v>0.583107985291205</v>
       </c>
       <c r="G31">
-        <v>0.384146341463415</v>
+        <v>0.402298850574713</v>
       </c>
       <c r="H31">
-        <v>0.109756097560976</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31">
-        <v>0.00275</v>
+        <v>0.0025</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2743,7 +2746,7 @@
         <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q31">
         <v>1794198</v>
@@ -2752,19 +2755,19 @@
         <v>5696131</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2784,37 +2787,37 @@
         <v>39</v>
       </c>
       <c r="F32">
-        <v>0.0009745785119123</v>
+        <v>0.0143983225051385</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.951219512195122</v>
+        <v>0.936781609195402</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.3355</v>
+        <v>0.33</v>
       </c>
       <c r="K32">
-        <v>0.0063994485670218</v>
+        <v>0.0033856324972737</v>
       </c>
       <c r="L32">
-        <v>0.0026720637149627</v>
+        <v>0.0009191419896625</v>
       </c>
       <c r="M32">
-        <v>0.009665352931655701</v>
+        <v>0.007040380077907</v>
       </c>
       <c r="N32">
-        <v>1.90743623458177</v>
+        <v>1.0259492415981</v>
       </c>
       <c r="O32" t="s">
         <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q32">
         <v>1794198</v>
@@ -2823,19 +2826,19 @@
         <v>5696131</v>
       </c>
       <c r="S32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2855,31 +2858,31 @@
         <v>39</v>
       </c>
       <c r="F33">
-        <v>0.975415724842661</v>
+        <v>0.995124040174847</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.463414634146341</v>
+        <v>0.439024390243902</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.44</v>
+        <v>7.455</v>
       </c>
       <c r="K33">
-        <v>0.008333571332916</v>
+        <v>0.0100629958017289</v>
       </c>
       <c r="L33">
-        <v>0.0012082811214119</v>
+        <v>0.0036101589147976</v>
       </c>
       <c r="M33">
-        <v>0.0152740333544709</v>
+        <v>0.0158883178017328</v>
       </c>
       <c r="N33">
-        <v>0.112010367377904</v>
+        <v>0.134983176414875</v>
       </c>
       <c r="O33" t="s">
         <v>43</v>
@@ -2894,16 +2897,16 @@
         <v>5696131</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2923,37 +2926,37 @@
         <v>39</v>
       </c>
       <c r="F34">
-        <v>0.0032058533478164</v>
+        <v>0.0216001751991687</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.902298850574713</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.3405</v>
+        <v>0.34175</v>
       </c>
       <c r="K34">
-        <v>0.0055600117096018</v>
+        <v>0.0037883072407045</v>
       </c>
       <c r="L34">
-        <v>0.0022687371518062</v>
+        <v>0.0005608715333078001</v>
       </c>
       <c r="M34">
-        <v>0.0085799362237434</v>
+        <v>0.0070931199127826</v>
       </c>
       <c r="N34">
-        <v>1.63289624364225</v>
+        <v>1.10850248447827</v>
       </c>
       <c r="O34" t="s">
         <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q34">
         <v>1794198</v>
@@ -2962,19 +2965,19 @@
         <v>5696131</v>
       </c>
       <c r="S34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2991,40 +2994,40 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F35">
-        <v>0.0668776168843223</v>
+        <v>0.464153883904661</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.597701149425287</v>
+        <v>0.568965517241379</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.50575</v>
+        <v>0.5125</v>
       </c>
       <c r="K35">
-        <v>0.0040137362637362</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-0.0039945831526448</v>
       </c>
       <c r="M35">
-        <v>0.0083445407532207</v>
+        <v>0.0039954907549199</v>
       </c>
       <c r="N35">
-        <v>0.793620615667082</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
         <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q35">
         <v>1794198</v>
@@ -3033,19 +3036,19 @@
         <v>5696131</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3062,40 +3065,40 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F36">
-        <v>0.234113831164971</v>
+        <v>0.48182162156776</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.362068965517241</v>
+        <v>0.35632183908046</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="K36">
-        <v>0.0001600569675723</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>-0.0002070578231292</v>
+        <v>-0.0003525561874412</v>
       </c>
       <c r="M36">
-        <v>0.0005407491505412</v>
+        <v>0.0003494049954865</v>
       </c>
       <c r="N36">
-        <v>0.421202546242905</v>
+        <v>0</v>
       </c>
       <c r="O36" t="s">
         <v>43</v>
       </c>
       <c r="P36" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q36">
         <v>1794198</v>
@@ -3104,19 +3107,19 @@
         <v>5696131</v>
       </c>
       <c r="S36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3136,7 +3139,7 @@
         <v>39</v>
       </c>
       <c r="F37">
-        <v>0.749819733753643</v>
+        <v>0.881564367309178</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3148,19 +3151,19 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>4.895</v>
+        <v>4.865</v>
       </c>
       <c r="K37">
-        <v>-0.0224692412850307</v>
+        <v>-0.0465286624203822</v>
       </c>
       <c r="L37">
-        <v>-0.0829729605595888</v>
+        <v>-0.118065412445758</v>
       </c>
       <c r="M37">
-        <v>0.0457889329791156</v>
+        <v>0.0142683836046885</v>
       </c>
       <c r="N37">
-        <v>-0.459024336772844</v>
+        <v>-0.956395938754002</v>
       </c>
       <c r="O37" t="s">
         <v>43</v>
@@ -3175,19 +3178,19 @@
         <v>5696131</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3207,7 +3210,7 @@
         <v>39</v>
       </c>
       <c r="F38">
-        <v>0.5</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3222,22 +3225,22 @@
         <v>0.36</v>
       </c>
       <c r="K38">
-        <v>-0.00968903521665</v>
+        <v>0.0513728126862102</v>
       </c>
       <c r="L38">
-        <v>-0.0603304013580833</v>
+        <v>-0.0287323135587703</v>
       </c>
       <c r="M38">
-        <v>0.06265512691013771</v>
+        <v>0.09072157212687181</v>
       </c>
       <c r="N38">
-        <v>-2.69139867129167</v>
+        <v>14.2702257461695</v>
       </c>
       <c r="O38" t="s">
         <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q38">
         <v>1794198</v>
@@ -3246,16 +3249,16 @@
         <v>5696131</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3275,7 +3278,7 @@
         <v>39</v>
       </c>
       <c r="F39">
-        <v>0.59675202974633</v>
+        <v>0.5</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3287,25 +3290,25 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>110</v>
+        <v>108.8</v>
       </c>
       <c r="K39">
-        <v>0.653496494464944</v>
+        <v>-0.417220871176329</v>
       </c>
       <c r="L39">
-        <v>-3.05568374467337</v>
+        <v>-2.36940371717158</v>
       </c>
       <c r="M39">
         <v>1.69681369570067</v>
       </c>
       <c r="N39">
-        <v>0.594087722240858</v>
+        <v>-0.38347506541942</v>
       </c>
       <c r="O39" t="s">
         <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q39">
         <v>1794198</v>
@@ -3314,16 +3317,16 @@
         <v>5696131</v>
       </c>
       <c r="S39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3343,7 +3346,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>0.59675202974633</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3358,22 +3361,22 @@
         <v>5.4</v>
       </c>
       <c r="K40">
-        <v>0.235727590505628</v>
+        <v>0.7259119676565779</v>
       </c>
       <c r="L40">
-        <v>-0.914236064312707</v>
+        <v>0.191961423031978</v>
       </c>
       <c r="M40">
-        <v>0.600566620330414</v>
+        <v>1.04132615670663</v>
       </c>
       <c r="N40">
-        <v>4.36532575010422</v>
+        <v>13.4428142158626</v>
       </c>
       <c r="O40" t="s">
         <v>43</v>
       </c>
       <c r="P40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q40">
         <v>1794198</v>
@@ -3382,16 +3385,16 @@
         <v>5696131</v>
       </c>
       <c r="S40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3411,7 +3414,7 @@
         <v>39</v>
       </c>
       <c r="F41">
-        <v>0.105248850027669</v>
+        <v>0.237137175383665</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3423,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.4555</v>
+        <v>0.4895</v>
       </c>
       <c r="K41">
-        <v>-0.0123375883739199</v>
+        <v>-0.0075956148282097</v>
       </c>
       <c r="L41">
-        <v>-0.0442529467723799</v>
+        <v>-0.0435409584547719</v>
       </c>
       <c r="M41">
-        <v>0.0055045939259218</v>
+        <v>0.0144293151581595</v>
       </c>
       <c r="N41">
-        <v>-2.70858142127769</v>
+        <v>-1.55170885152396</v>
       </c>
       <c r="O41" t="s">
         <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q41">
         <v>1794198</v>
@@ -3450,16 +3453,16 @@
         <v>5696131</v>
       </c>
       <c r="S41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3479,7 +3482,7 @@
         <v>39</v>
       </c>
       <c r="F42">
-        <v>0.360257393568128</v>
+        <v>0.5</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3491,25 +3494,25 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>110.65</v>
+        <v>109.4</v>
       </c>
       <c r="K42">
-        <v>-0.287221494102229</v>
+        <v>0.0397551020408155</v>
       </c>
       <c r="L42">
-        <v>-0.98928773404064</v>
+        <v>-0.8090301386609851</v>
       </c>
       <c r="M42">
         <v>0.738317956968497</v>
       </c>
       <c r="N42">
-        <v>-0.259576587530256</v>
+        <v>0.0363392157594291</v>
       </c>
       <c r="O42" t="s">
         <v>43</v>
       </c>
       <c r="P42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q42">
         <v>1794198</v>
@@ -3518,16 +3521,16 @@
         <v>5696131</v>
       </c>
       <c r="S42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3547,7 +3550,7 @@
         <v>39</v>
       </c>
       <c r="F43">
-        <v>0.8584345646688269</v>
+        <v>0.894751149972331</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3559,19 +3562,19 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>5.275</v>
+        <v>5.605</v>
       </c>
       <c r="K43">
-        <v>0.0660090361445789</v>
+        <v>0.120660408560311</v>
       </c>
       <c r="L43">
         <v>-0.0556810226810014</v>
       </c>
       <c r="M43">
-        <v>0.283804854722647</v>
+        <v>0.353515376460454</v>
       </c>
       <c r="N43">
-        <v>1.25135613544225</v>
+        <v>2.152728074225</v>
       </c>
       <c r="O43" t="s">
         <v>43</v>
@@ -3586,16 +3589,16 @@
         <v>5696131</v>
       </c>
       <c r="S43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
